--- a/biology/Médecine/Helen_Caldicott/Helen_Caldicott.xlsx
+++ b/biology/Médecine/Helen_Caldicott/Helen_Caldicott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helen Caldicott est une médecin et militante anti-nucléaire australienne, née à Melbourne le 7 août 1938.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir obtenu son diplôme de médecine à l'université d'Adélaïde (Australie), Helen Caldicott rejoint l'hôpital pour enfants d'Adélaïde, puis le quitte en 1977 pour celui de Boston (USA) et enseigne la pédiatrie de 1977 à 1978 à la Harvard Medical School. Elle abandonne sa carrière médicale dès 1980 pour se consacrer au mouvement anti-nucléaire.
 Elle accède à la notoriété en 1982, grâce à sa participation au documentaire canadien Si cette planète vous tient à cœur (If you love this planet). Caldicott y accuse alors la Hershey Foods Corporation de distribuer des aliments contaminés par du strontium 90 à la suite de l'accident de la centrale nucléaire de Three Mile Island. Selon Caldicott, le strontium 90 absorbé par les végétaux est ensuite ingéré par les vaches, produisant ainsi le lait contaminé qu'utilisait la société Hershey.
@@ -552,7 +566,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Thomas-Merton 1979
 Docteure honoris causa remis par la Faculté des arts et des sciences de l’Université de Montréal, pour souligner ses connaissances scientifiques et ses expériences médicales permettant notamment de mettre en lumière les conséquences potentiellement désastreuses de l’énergie nucléaire, 2009</t>
@@ -583,7 +599,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nuclear Madness (1979)
 Missile Envy (1984)
@@ -620,7 +638,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1982 :  Si cette planète vous tient à cœur, documentaire récompensé aux Oscars</t>
         </is>
